--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06523646254013502</v>
+        <v>0.06688180319584346</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7487950130065588</v>
+        <v>3.289798647999065</v>
       </c>
       <c r="I2" t="n">
-        <v>-208.5042542584724</v>
+        <v>244.0186614155182</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06575435722281947</v>
+        <v>0.0748738154896907</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.875025933587375</v>
+        <v>9.456526931148261</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04492199767918811</v>
+        <v>-0.02861465373386819</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06450949884958646</v>
+        <v>36.26037491014146</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02663354520139687</v>
+        <v>-0.01471232876849582</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.619015493927136</v>
+        <v>45.65449782683367</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1044383381130581</v>
+        <v>-0.09882436070236972</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.51154479863797</v>
+        <v>6.805692261186584</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0940459104713673</v>
+        <v>-0.08613080042319071</v>
       </c>
       <c r="H7" t="n">
-        <v>2.927337610832348</v>
+        <v>5.735252820503811</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3642699454894762</v>
+        <v>-0.3700982681624364</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.7180570755212945</v>
+        <v>-0.8704549774968027</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3871724795150355</v>
+        <v>-0.3783434559790126</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7480939761119739</v>
+        <v>3.011419653023906</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01850979429141602</v>
+        <v>0.02390166328535672</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.326500957934805</v>
+        <v>18.37782050933257</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02868270518851734</v>
+        <v>0.0280979593555258</v>
       </c>
       <c r="H11" t="n">
-        <v>26.38628506490552</v>
+        <v>23.80968522701538</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2158101007378131</v>
+        <v>0.2162119023961955</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.677571949037866</v>
+        <v>-2.496374160542381</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2148351375514595</v>
+        <v>0.2302834051375213</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.605395468893076</v>
+        <v>2.254196466853895</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04826043468106809</v>
+        <v>-0.05330345828707539</v>
       </c>
       <c r="H14" t="n">
-        <v>14.61896913640043</v>
+        <v>-26.59619584127802</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04775227752119392</v>
+        <v>-0.05176687210746847</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1173697799066782</v>
+        <v>-8.534364142784382</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2157081349196969</v>
+        <v>0.2168361460346534</v>
       </c>
       <c r="H16" t="n">
-        <v>1.474660595070717</v>
+        <v>2.005306066926892</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.223532739010307</v>
+        <v>0.2218580073375804</v>
       </c>
       <c r="H17" t="n">
-        <v>1.353344891298156</v>
+        <v>0.5939945716189695</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08106328232021963</v>
+        <v>0.07710004493703913</v>
       </c>
       <c r="H18" t="n">
-        <v>11.01481132302523</v>
+        <v>5.587223915644874</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0770365423610906</v>
+        <v>0.07746498637498261</v>
       </c>
       <c r="H19" t="n">
-        <v>2.254545228387319</v>
+        <v>2.823240894802381</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08244342152719374</v>
+        <v>-0.07941155999592597</v>
       </c>
       <c r="H20" t="n">
-        <v>9.950985295983211</v>
+        <v>-5.907531537408643</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.07982804069948771</v>
+        <v>-0.07939147107721269</v>
       </c>
       <c r="H21" t="n">
-        <v>-7.78662548459174</v>
+        <v>8.290928956506406</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06900717885619125</v>
+        <v>0.07079266220672113</v>
       </c>
       <c r="H22" t="n">
-        <v>-6.115104740888907</v>
+        <v>-3.685938382694195</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07373912129321598</v>
+        <v>0.07839093624384516</v>
       </c>
       <c r="H23" t="n">
-        <v>7.914094485993227</v>
+        <v>14.72182950249032</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06460746993595368</v>
+        <v>0.05644797755381573</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.009453711583486</v>
+        <v>-15.25871257227331</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0659097696396094</v>
+        <v>0.06005691009824884</v>
       </c>
       <c r="H25" t="n">
-        <v>20.31709516796057</v>
+        <v>9.632805687158225</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1187166276618303</v>
+        <v>0.1191608336202761</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.5298799135122682</v>
+        <v>-0.1576892532822579</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1205545908499076</v>
+        <v>0.1212526852576862</v>
       </c>
       <c r="H27" t="n">
-        <v>5.879498312724547</v>
+        <v>6.492613791358957</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1381721452009252</v>
+        <v>0.1414771452783212</v>
       </c>
       <c r="H28" t="n">
-        <v>6.900219068399785</v>
+        <v>9.457212243695336</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1491106402436299</v>
+        <v>0.1446851087775705</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.146756919291452</v>
+        <v>-4.080673218362443</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08599063670353964</v>
+        <v>0.09252860846811144</v>
       </c>
       <c r="H30" t="n">
-        <v>1.996659413493414</v>
+        <v>9.751588378900372</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08963416867287746</v>
+        <v>0.09228867821857552</v>
       </c>
       <c r="H31" t="n">
-        <v>9.727401324394878</v>
+        <v>12.97697052945166</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05513648241793009</v>
+        <v>0.06140675979231203</v>
       </c>
       <c r="H32" t="n">
-        <v>3.329439186192655</v>
+        <v>15.0803564776821</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05719755284247114</v>
+        <v>0.061654104307026</v>
       </c>
       <c r="H33" t="n">
-        <v>3.538267586012322</v>
+        <v>11.6054591897988</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0164112252547466</v>
+        <v>0.01878620243972818</v>
       </c>
       <c r="H34" t="n">
-        <v>-5.450282621554043</v>
+        <v>8.232633683267142</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02598264888930455</v>
+        <v>0.0179743161536722</v>
       </c>
       <c r="H35" t="n">
-        <v>53.73722466005546</v>
+        <v>6.35256984000025</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02535007646203982</v>
+        <v>-0.02024975651278921</v>
       </c>
       <c r="H36" t="n">
-        <v>-12.72348049695624</v>
+        <v>30.28311879584267</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02558481650329845</v>
+        <v>-0.01697634106253017</v>
       </c>
       <c r="H37" t="n">
-        <v>-23.08528793662136</v>
+        <v>48.96463750107875</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07787890248112457</v>
+        <v>0.0849662174128735</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.5158488323148473</v>
+        <v>8.537636612141572</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08182749666791063</v>
+        <v>0.07757877845447089</v>
       </c>
       <c r="H39" t="n">
-        <v>5.25096001704618</v>
+        <v>-0.213971564831332</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0582046084357911</v>
+        <v>0.04527929306373295</v>
       </c>
       <c r="H40" t="n">
-        <v>-12.08962432323545</v>
+        <v>-31.61160652764761</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06451235585787082</v>
+        <v>0.07164069658027629</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.7850835207811556</v>
+        <v>10.17774243719518</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08179094274307075</v>
+        <v>0.08325589628786745</v>
       </c>
       <c r="H42" t="n">
-        <v>5.141513213767173</v>
+        <v>7.024697675543612</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08281818617395638</v>
+        <v>0.08796402656399174</v>
       </c>
       <c r="H43" t="n">
-        <v>3.310311161220205</v>
+        <v>9.729413008776785</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08631854405138469</v>
+        <v>0.08730889374550678</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.185628337451327</v>
+        <v>-1.063384744011153</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09986259985646236</v>
+        <v>0.09169491796166072</v>
       </c>
       <c r="H45" t="n">
-        <v>10.48763729161322</v>
+        <v>1.450942112404738</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001893122197963436</v>
+        <v>0.003214792196063571</v>
       </c>
       <c r="H46" t="n">
-        <v>-169.1874632749493</v>
+        <v>217.4902059893536</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>0.005505313733196951</v>
+        <v>0.006232265101062115</v>
       </c>
       <c r="H47" t="n">
-        <v>-11623.80647406788</v>
+        <v>13145.47213842819</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.09237335120697424</v>
+        <v>-0.1012910513591342</v>
       </c>
       <c r="H48" t="n">
-        <v>-3.883031529880653</v>
+        <v>-5.39607649371591</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1012891431816714</v>
+        <v>-0.1027562111770364</v>
       </c>
       <c r="H49" t="n">
-        <v>-7.562828137193558</v>
+        <v>6.223971748816911</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1664716255203485</v>
+        <v>0.1677609394273699</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.362276935290872</v>
+        <v>-1.606077950606572</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1739059831028762</v>
+        <v>0.1762015557752234</v>
       </c>
       <c r="H51" t="n">
-        <v>2.397101674409928</v>
+        <v>3.748751480456455</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0695321234642388</v>
+        <v>0.0750751533040903</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.014829701035781</v>
+        <v>5.796447961287162</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07268199893373357</v>
+        <v>0.07205310860746797</v>
       </c>
       <c r="H53" t="n">
-        <v>13.00745814149915</v>
+        <v>12.02964660269089</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1260884500855027</v>
+        <v>-0.1400112785016653</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.341445428789777</v>
+        <v>-9.552543086019542</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1265267823670602</v>
+        <v>-0.1252392214509302</v>
       </c>
       <c r="H55" t="n">
-        <v>8.633565702728403</v>
+        <v>-7.52808960698057</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1913484321972825</v>
+        <v>0.1925910650140965</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6986586872798491</v>
+        <v>1.35260424856333</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1993969016079195</v>
+        <v>0.2050003768046463</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2456545605414789</v>
+        <v>3.062769743274723</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06688180319584346</v>
+        <v>0.0743280361453236</v>
       </c>
       <c r="H2" t="n">
-        <v>3.289798647999065</v>
+        <v>14.78948713255983</v>
       </c>
       <c r="I2" t="n">
-        <v>244.0186614155182</v>
+        <v>475.1119739588566</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0748738154896907</v>
+        <v>0.06825074401602975</v>
       </c>
       <c r="H3" t="n">
-        <v>9.456526931148261</v>
+        <v>-0.2256082236109598</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02861465373386819</v>
+        <v>-0.03915086399347909</v>
       </c>
       <c r="H4" t="n">
-        <v>36.26037491014146</v>
+        <v>12.79078838075259</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01471232876849582</v>
+        <v>-0.01866125984821869</v>
       </c>
       <c r="H5" t="n">
-        <v>45.65449782683367</v>
+        <v>31.0676403719955</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09882436070236972</v>
+        <v>-0.08271557824885563</v>
       </c>
       <c r="H6" t="n">
-        <v>6.805692261186584</v>
+        <v>21.99675262930482</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08613080042319071</v>
+        <v>-0.09015388193962762</v>
       </c>
       <c r="H7" t="n">
-        <v>5.735252820503811</v>
+        <v>1.332242977728449</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3700982681624364</v>
+        <v>-0.3599841737535226</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.8704549774968027</v>
+        <v>1.886146153813329</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3783434559790126</v>
+        <v>-0.3648216446658841</v>
       </c>
       <c r="H9" t="n">
-        <v>3.011419653023906</v>
+        <v>6.477744396467491</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02390166328535672</v>
+        <v>0.03807514592041499</v>
       </c>
       <c r="H10" t="n">
-        <v>18.37782050933257</v>
+        <v>88.57485923981226</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0280979593555258</v>
+        <v>0.02842654780157124</v>
       </c>
       <c r="H11" t="n">
-        <v>23.80968522701538</v>
+        <v>25.25756375653284</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2162119023961955</v>
+        <v>0.2142745085071594</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.496374160542381</v>
+        <v>-3.370067637944354</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2302834051375213</v>
+        <v>0.2241120825662148</v>
       </c>
       <c r="H13" t="n">
-        <v>2.254196466853895</v>
+        <v>-0.4860949158006961</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05330345828707539</v>
+        <v>-0.04543580366458032</v>
       </c>
       <c r="H14" t="n">
-        <v>-26.59619584127802</v>
+        <v>-7.910444908633031</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05176687210746847</v>
+        <v>-0.05472133593534471</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.534364142784382</v>
+        <v>-14.72868958465596</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2168361460346534</v>
+        <v>0.216025536793977</v>
       </c>
       <c r="H16" t="n">
-        <v>2.005306066926892</v>
+        <v>1.62397460901277</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2218580073375804</v>
+        <v>0.2206189229254771</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5939945716189695</v>
+        <v>0.03217373801147629</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07710004493703913</v>
+        <v>0.07658885007158407</v>
       </c>
       <c r="H18" t="n">
-        <v>5.587223915644874</v>
+        <v>4.887151084722289</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07746498637498261</v>
+        <v>0.08043953820566083</v>
       </c>
       <c r="H19" t="n">
-        <v>2.823240894802381</v>
+        <v>6.77151577036186</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.07941155999592597</v>
+        <v>-0.08044438584332532</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.907531537408643</v>
+        <v>-7.284963689751561</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.07939147107721269</v>
+        <v>-0.08234281939936004</v>
       </c>
       <c r="H21" t="n">
-        <v>8.290928956506406</v>
+        <v>4.881678450407706</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07079266220672113</v>
+        <v>0.07323269483254494</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.685938382694195</v>
+        <v>-0.3662517747011098</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07839093624384516</v>
+        <v>0.07384821209514221</v>
       </c>
       <c r="H23" t="n">
-        <v>14.72182950249032</v>
+        <v>8.073744274330243</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05644797755381573</v>
+        <v>0.06746233037103917</v>
       </c>
       <c r="H24" t="n">
-        <v>-15.25871257227331</v>
+        <v>1.276342860401429</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06005691009824884</v>
+        <v>0.06412377492086697</v>
       </c>
       <c r="H25" t="n">
-        <v>9.632805687158225</v>
+        <v>17.05679403628633</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1191608336202761</v>
+        <v>0.1182826026302501</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1576892532822579</v>
+        <v>-0.8935401931388353</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1212526852576862</v>
+        <v>0.1225704598949948</v>
       </c>
       <c r="H27" t="n">
-        <v>6.492613791358957</v>
+        <v>7.649975916714906</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1414771452783212</v>
+        <v>0.1341822115967917</v>
       </c>
       <c r="H28" t="n">
-        <v>9.457212243695336</v>
+        <v>3.813310518706193</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1446851087775705</v>
+        <v>0.1375336028696899</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.080673218362443</v>
+        <v>-8.821780564892286</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09252860846811144</v>
+        <v>0.08898821025144922</v>
       </c>
       <c r="H30" t="n">
-        <v>9.751588378900372</v>
+        <v>5.552191736007843</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09228867821857552</v>
+        <v>0.09160242339596379</v>
       </c>
       <c r="H31" t="n">
-        <v>12.97697052945166</v>
+        <v>12.13687841450907</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06140675979231203</v>
+        <v>0.05644785683990616</v>
       </c>
       <c r="H32" t="n">
-        <v>15.0803564776821</v>
+        <v>5.787042167804707</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.061654104307026</v>
+        <v>0.05639984961599955</v>
       </c>
       <c r="H33" t="n">
-        <v>11.6054591897988</v>
+        <v>2.094275561666261</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01878620243972818</v>
+        <v>0.01013449298524446</v>
       </c>
       <c r="H34" t="n">
-        <v>8.232633683267142</v>
+        <v>-41.61231518947289</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0179743161536722</v>
+        <v>0.02139535201274146</v>
       </c>
       <c r="H35" t="n">
-        <v>6.35256984000025</v>
+        <v>26.59456135812964</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02024975651278921</v>
+        <v>-0.0204480150744816</v>
       </c>
       <c r="H36" t="n">
-        <v>30.28311879584267</v>
+        <v>29.60054423824313</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01697634106253017</v>
+        <v>-0.01589760301219547</v>
       </c>
       <c r="H37" t="n">
-        <v>48.96463750107875</v>
+        <v>52.20760883615192</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0849662174128735</v>
+        <v>0.07632324828959812</v>
       </c>
       <c r="H38" t="n">
-        <v>8.537636612141572</v>
+        <v>-2.503074278795301</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07757877845447089</v>
+        <v>0.07945846834961998</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.213971564831332</v>
+        <v>2.203787428844034</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04527929306373295</v>
+        <v>0.06392746202049054</v>
       </c>
       <c r="H40" t="n">
-        <v>-31.61160652764761</v>
+        <v>-3.446009631985637</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07164069658027629</v>
+        <v>0.06509649089041833</v>
       </c>
       <c r="H41" t="n">
-        <v>10.17774243719518</v>
+        <v>0.1132700999495589</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08325589628786745</v>
+        <v>0.07744504374521131</v>
       </c>
       <c r="H42" t="n">
-        <v>7.024697675543612</v>
+        <v>-0.4451004329846407</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08796402656399174</v>
+        <v>0.08768242427589364</v>
       </c>
       <c r="H43" t="n">
-        <v>9.729413008776785</v>
+        <v>9.378132434410915</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08730889374550678</v>
+        <v>0.07851875215850995</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.063384744011153</v>
+        <v>-11.02418963948182</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09169491796166072</v>
+        <v>0.09625700292452216</v>
       </c>
       <c r="H45" t="n">
-        <v>1.450942112404738</v>
+        <v>6.498417237172768</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.003214792196063571</v>
+        <v>0.001106459218782339</v>
       </c>
       <c r="H46" t="n">
-        <v>217.4902059893536</v>
+        <v>140.4374882123752</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>0.006232265101062115</v>
+        <v>0.01244202760357919</v>
       </c>
       <c r="H47" t="n">
-        <v>13145.47213842819</v>
+        <v>26143.84149518692</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1012910513591342</v>
+        <v>-0.08807072099565647</v>
       </c>
       <c r="H48" t="n">
-        <v>-5.39607649371591</v>
+        <v>8.360034550299268</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1027562111770364</v>
+        <v>-0.102486770484272</v>
       </c>
       <c r="H49" t="n">
-        <v>6.223971748816911</v>
+        <v>6.469865186568917</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1677609394273699</v>
+        <v>0.1778830459905756</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.606077950606572</v>
+        <v>4.330666130317605</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1762015557752234</v>
+        <v>0.1726644126136901</v>
       </c>
       <c r="H51" t="n">
-        <v>3.748751480456455</v>
+        <v>1.666055983233625</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0750751533040903</v>
+        <v>0.06226014594962717</v>
       </c>
       <c r="H52" t="n">
-        <v>5.796447961287162</v>
+        <v>-12.26255290692823</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07205310860746797</v>
+        <v>0.07164401204000689</v>
       </c>
       <c r="H53" t="n">
-        <v>12.02964660269089</v>
+        <v>11.39357489440809</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1400112785016653</v>
+        <v>-0.1336095592000882</v>
       </c>
       <c r="H54" t="n">
-        <v>-9.552543086019542</v>
+        <v>-4.543484979302187</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1252392214509302</v>
+        <v>-0.1224624651157438</v>
       </c>
       <c r="H55" t="n">
-        <v>-7.52808960698057</v>
+        <v>-5.144017743809016</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1925910650140965</v>
+        <v>0.1901323320766818</v>
       </c>
       <c r="H56" t="n">
-        <v>1.35260424856333</v>
+        <v>0.05867617178333032</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2050003768046463</v>
+        <v>0.2036309055125753</v>
       </c>
       <c r="H57" t="n">
-        <v>3.062769743274723</v>
+        <v>2.374275865142782</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>